--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW28.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW28.xlsx
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>3.844301268518406</v>
+        <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>3.96381883729743</v>
+        <v>0.0</v>
       </c>
       <c r="D79" t="n">
-        <v>4.475709674145585</v>
+        <v>0.0</v>
       </c>
       <c r="E79" t="n">
-        <v>4.729914053370653</v>
+        <v>0.0</v>
       </c>
       <c r="F79" t="n">
-        <v>4.584034529958255</v>
+        <v>0.0</v>
       </c>
       <c r="G79" t="n">
-        <v>4.543098063984237</v>
+        <v>0.0</v>
       </c>
       <c r="H79" t="n">
-        <v>4.002673464944</v>
+        <v>0.0</v>
       </c>
       <c r="I79" t="n">
-        <v>4.683297020097933</v>
+        <v>0.0</v>
       </c>
       <c r="J79" t="n">
-        <v>4.664916280789655</v>
+        <v>0.0</v>
       </c>
       <c r="K79" t="n">
-        <v>4.006855990170616</v>
+        <v>0.0</v>
       </c>
       <c r="L79" t="n">
-        <v>4.779027968791788</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -4207,37 +4207,37 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="n">
-        <v>0.42132958067292214</v>
+        <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4936620038603757</v>
+        <v>0.0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5016</v>
+        <v>0.0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4906138483719646</v>
+        <v>0.0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.5041066913960874</v>
+        <v>0.0</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4758585446765196</v>
+        <v>0.0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.4476286372740589</v>
+        <v>0.0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.49937416802846163</v>
+        <v>0.0</v>
       </c>
       <c r="J109" t="n">
-        <v>0.5068630183550928</v>
+        <v>0.0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.48258790156037273</v>
+        <v>0.0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.5083357092517095</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="110">
@@ -4625,37 +4625,37 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="n">
-        <v>1.0280826802688785</v>
+        <v>0.0</v>
       </c>
       <c r="C120" t="n">
-        <v>1.181330134661105</v>
+        <v>0.0</v>
       </c>
       <c r="D120" t="n">
-        <v>1.2471201723177445</v>
+        <v>0.0</v>
       </c>
       <c r="E120" t="n">
-        <v>1.1998449213578453</v>
+        <v>0.0</v>
       </c>
       <c r="F120" t="n">
-        <v>1.0928605198780097</v>
+        <v>0.0</v>
       </c>
       <c r="G120" t="n">
-        <v>1.2093252193647024</v>
+        <v>0.0</v>
       </c>
       <c r="H120" t="n">
-        <v>1.2243511232155382</v>
+        <v>0.0</v>
       </c>
       <c r="I120" t="n">
-        <v>0.9918982454132991</v>
+        <v>0.0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.0739121686232935</v>
+        <v>0.0</v>
       </c>
       <c r="K120" t="n">
-        <v>1.2312683628860233</v>
+        <v>0.0</v>
       </c>
       <c r="L120" t="n">
-        <v>1.1102022559105704</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="121">
@@ -4701,37 +4701,37 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3237008013178531</v>
+        <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.371952099329907</v>
+        <v>0.0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.39266666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.37778164145233295</v>
+        <v>0.0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.34409666926850385</v>
+        <v>0.0</v>
       </c>
       <c r="G122" t="n">
-        <v>0.3807665959899866</v>
+        <v>0.0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.38549763290986594</v>
+        <v>0.0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3123078163150113</v>
+        <v>0.0</v>
       </c>
       <c r="J122" t="n">
-        <v>0.33813061556239565</v>
+        <v>0.0</v>
       </c>
       <c r="K122" t="n">
-        <v>0.3876755861690902</v>
+        <v>0.0</v>
       </c>
       <c r="L122" t="n">
-        <v>0.3495568661551146</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>0.34172818188094634</v>
+        <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3926666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4145348591630158</v>
+        <v>0.0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3988208646871369</v>
+        <v>0.0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.3632599261468983</v>
+        <v>0.0</v>
       </c>
       <c r="G127" t="n">
-        <v>0.40197205579632433</v>
+        <v>0.0</v>
       </c>
       <c r="H127" t="n">
-        <v>0.4069665712206296</v>
+        <v>0.0</v>
       </c>
       <c r="I127" t="n">
-        <v>0.32970070454580364</v>
+        <v>0.0</v>
       </c>
       <c r="J127" t="n">
-        <v>0.3569616140089852</v>
+        <v>0.0</v>
       </c>
       <c r="K127" t="n">
-        <v>0.4092658179462056</v>
+        <v>0.0</v>
       </c>
       <c r="L127" t="n">
-        <v>0.3690242095443351</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5321293853297403</v>
+        <v>0.0</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5217046068036423</v>
+        <v>0.0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.47802356376708555</v>
+        <v>0.0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.4965333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5329253164486096</v>
+        <v>0.0</v>
       </c>
       <c r="G132" t="n">
-        <v>0.4549862837465235</v>
+        <v>0.0</v>
       </c>
       <c r="H132" t="n">
-        <v>0.46241221612957767</v>
+        <v>0.0</v>
       </c>
       <c r="I132" t="n">
-        <v>0.5166652979151246</v>
+        <v>0.0</v>
       </c>
       <c r="J132" t="n">
-        <v>0.5333319203761315</v>
+        <v>0.0</v>
       </c>
       <c r="K132" t="n">
-        <v>0.456746188458486</v>
+        <v>0.0</v>
       </c>
       <c r="L132" t="n">
-        <v>0.5427626120496031</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="133">
@@ -5195,37 +5195,37 @@
         <v>134.0</v>
       </c>
       <c r="B135" t="n">
-        <v>0.24547570355439058</v>
+        <v>0.0</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2406666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D135" t="n">
-        <v>0.22051623884403473</v>
+        <v>0.0</v>
       </c>
       <c r="E135" t="n">
-        <v>0.2859731783202897</v>
+        <v>0.0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.2913626229509626</v>
+        <v>0.0</v>
       </c>
       <c r="G135" t="n">
-        <v>0.2461142680933446</v>
+        <v>0.0</v>
       </c>
       <c r="H135" t="n">
-        <v>0.2882563002261446</v>
+        <v>0.0</v>
       </c>
       <c r="I135" t="n">
-        <v>0.28662898342290044</v>
+        <v>0.0</v>
       </c>
       <c r="J135" t="n">
-        <v>0.2913169267025229</v>
+        <v>0.0</v>
       </c>
       <c r="K135" t="n">
-        <v>0.2762747401207252</v>
+        <v>0.0</v>
       </c>
       <c r="L135" t="n">
-        <v>0.24447785586262552</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
@@ -6943,37 +6943,37 @@
         <v>180.0</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.13396298470003054</v>
+        <v>-0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.15396043468358628</v>
+        <v>-0.0</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.16187973411505618</v>
+        <v>-0.0</v>
       </c>
       <c r="E181" t="n">
-        <v>-0.12978833561012565</v>
+        <v>-0.0</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.15055845015746755</v>
+        <v>-0.0</v>
       </c>
       <c r="G181" t="n">
-        <v>-0.14975452607263362</v>
+        <v>-0.0</v>
       </c>
       <c r="H181" t="n">
-        <v>-0.14575405798227384</v>
+        <v>-0.0</v>
       </c>
       <c r="I181" t="n">
-        <v>-0.1540448775975943</v>
+        <v>-0.0</v>
       </c>
       <c r="J181" t="n">
-        <v>-0.15062059871286484</v>
+        <v>-0.0</v>
       </c>
       <c r="K181" t="n">
-        <v>-0.14244603964712482</v>
+        <v>-0.0</v>
       </c>
       <c r="L181" t="n">
-        <v>-0.14888822128213636</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="182">
@@ -7019,37 +7019,37 @@
         <v>182.0</v>
       </c>
       <c r="B183" t="n">
-        <v>2.370423793147791</v>
+        <v>0.0</v>
       </c>
       <c r="C183" t="n">
-        <v>2.724271024526271</v>
+        <v>0.0</v>
       </c>
       <c r="D183" t="n">
-        <v>2.8644</v>
+        <v>0.0</v>
       </c>
       <c r="E183" t="n">
-        <v>2.2965549736905984</v>
+        <v>0.0</v>
       </c>
       <c r="F183" t="n">
-        <v>2.664074209094832</v>
+        <v>0.0</v>
       </c>
       <c r="G183" t="n">
-        <v>2.649849079796302</v>
+        <v>0.0</v>
       </c>
       <c r="H183" t="n">
-        <v>2.5790623265274704</v>
+        <v>0.0</v>
       </c>
       <c r="I183" t="n">
-        <v>2.72576520960266</v>
+        <v>0.0</v>
       </c>
       <c r="J183" t="n">
-        <v>2.6651739040199143</v>
+        <v>0.0</v>
       </c>
       <c r="K183" t="n">
-        <v>2.5205282069170063</v>
+        <v>0.0</v>
       </c>
       <c r="L183" t="n">
-        <v>2.6345201477624958</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="184">
@@ -9337,37 +9337,37 @@
         <v>243.0</v>
       </c>
       <c r="B244" t="n">
-        <v>2.0154927159317064</v>
+        <v>0.0</v>
       </c>
       <c r="C244" t="n">
-        <v>2.059134829853489</v>
+        <v>0.0</v>
       </c>
       <c r="D244" t="n">
-        <v>1.790596617509363</v>
+        <v>0.0</v>
       </c>
       <c r="E244" t="n">
-        <v>2.025333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F244" t="n">
-        <v>1.9543510260843862</v>
+        <v>0.0</v>
       </c>
       <c r="G244" t="n">
-        <v>2.1047790388100758</v>
+        <v>0.0</v>
       </c>
       <c r="H244" t="n">
-        <v>1.716370091699426</v>
+        <v>0.0</v>
       </c>
       <c r="I244" t="n">
-        <v>2.1190354149950625</v>
+        <v>0.0</v>
       </c>
       <c r="J244" t="n">
-        <v>1.9568378720574024</v>
+        <v>0.0</v>
       </c>
       <c r="K244" t="n">
-        <v>2.0956413269205663</v>
+        <v>0.0</v>
       </c>
       <c r="L244" t="n">
-        <v>2.258455381618997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="245">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>0.7772037348870112</v>
+        <v>0.0</v>
       </c>
       <c r="C312" t="n">
-        <v>0.8030556311720176</v>
+        <v>0.0</v>
       </c>
       <c r="D312" t="n">
-        <v>0.6567028197394615</v>
+        <v>0.0</v>
       </c>
       <c r="E312" t="n">
-        <v>0.8006812176007793</v>
+        <v>0.0</v>
       </c>
       <c r="F312" t="n">
-        <v>0.6716940256921283</v>
+        <v>0.0</v>
       </c>
       <c r="G312" t="n">
-        <v>0.7646796130305288</v>
+        <v>0.0</v>
       </c>
       <c r="H312" t="n">
-        <v>0.6671268562875156</v>
+        <v>0.0</v>
       </c>
       <c r="I312" t="n">
-        <v>0.8083320303657169</v>
+        <v>0.0</v>
       </c>
       <c r="J312" t="n">
-        <v>0.6714168736045487</v>
+        <v>0.0</v>
       </c>
       <c r="K312" t="n">
-        <v>0.6641033534996236</v>
+        <v>0.0</v>
       </c>
       <c r="L312" t="n">
-        <v>0.7778165653508861</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="313">
@@ -12453,37 +12453,37 @@
         <v>325.0</v>
       </c>
       <c r="B326" t="n">
-        <v>0.009339392299372867</v>
+        <v>0.0</v>
       </c>
       <c r="C326" t="n">
-        <v>0.010942747266837884</v>
+        <v>0.0</v>
       </c>
       <c r="D326" t="n">
-        <v>0.011118704672677877</v>
+        <v>0.0</v>
       </c>
       <c r="E326" t="n">
-        <v>0.010875180399469374</v>
+        <v>0.0</v>
       </c>
       <c r="F326" t="n">
-        <v>0.011174269188903234</v>
+        <v>0.0</v>
       </c>
       <c r="G326" t="n">
-        <v>0.010548107305080767</v>
+        <v>0.0</v>
       </c>
       <c r="H326" t="n">
-        <v>0.009922349722654523</v>
+        <v>0.0</v>
       </c>
       <c r="I326" t="n">
-        <v>0.011069365820320342</v>
+        <v>0.0</v>
       </c>
       <c r="J326" t="n">
-        <v>0.011235367245997574</v>
+        <v>0.0</v>
       </c>
       <c r="K326" t="n">
-        <v>0.010697273437115485</v>
+        <v>0.0</v>
       </c>
       <c r="L326" t="n">
-        <v>0.011268011614326166</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="327">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>0.20667982790355116</v>
+        <v>0.0</v>
       </c>
       <c r="C327" t="n">
-        <v>0.2421619147590552</v>
+        <v>0.0</v>
       </c>
       <c r="D327" t="n">
-        <v>0.24605583474781154</v>
+        <v>0.0</v>
       </c>
       <c r="E327" t="n">
-        <v>0.24066666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="F327" t="n">
-        <v>0.2472854719964548</v>
+        <v>0.0</v>
       </c>
       <c r="G327" t="n">
-        <v>0.23342857143592466</v>
+        <v>0.0</v>
       </c>
       <c r="H327" t="n">
-        <v>0.18996003957993154</v>
+        <v>0.0</v>
       </c>
       <c r="I327" t="n">
-        <v>0.21224733477636257</v>
+        <v>0.0</v>
       </c>
       <c r="J327" t="n">
-        <v>0.21909402297343536</v>
+        <v>0.0</v>
       </c>
       <c r="K327" t="n">
-        <v>0.18763242191950202</v>
+        <v>0.0</v>
       </c>
       <c r="L327" t="n">
-        <v>0.22296817357125776</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="328">
@@ -12947,37 +12947,37 @@
         <v>338.0</v>
       </c>
       <c r="B339" t="n">
-        <v>1.7550662594539377</v>
+        <v>0.0</v>
       </c>
       <c r="C339" t="n">
-        <v>2.0166789115420567</v>
+        <v>0.0</v>
       </c>
       <c r="D339" t="n">
-        <v>2.1289907688619114</v>
+        <v>0.0</v>
       </c>
       <c r="E339" t="n">
-        <v>2.0482859778374802</v>
+        <v>0.0</v>
       </c>
       <c r="F339" t="n">
-        <v>1.865650167577525</v>
+        <v>0.0</v>
       </c>
       <c r="G339" t="n">
-        <v>2.064470037233415</v>
+        <v>0.0</v>
       </c>
       <c r="H339" t="n">
-        <v>2.0901211423172046</v>
+        <v>0.0</v>
       </c>
       <c r="I339" t="n">
-        <v>1.6932948844942628</v>
+        <v>0.0</v>
       </c>
       <c r="J339" t="n">
-        <v>1.8333029521271715</v>
+        <v>0.0</v>
       </c>
       <c r="K339" t="n">
-        <v>2.1019297392201786</v>
+        <v>0.0</v>
       </c>
       <c r="L339" t="n">
-        <v>1.8952546890573965</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="340">
@@ -13365,37 +13365,37 @@
         <v>349.0</v>
       </c>
       <c r="B350" t="n">
-        <v>0.34353824282224515</v>
+        <v>0.0</v>
       </c>
       <c r="C350" t="n">
-        <v>0.3947465378448972</v>
+        <v>0.0</v>
       </c>
       <c r="D350" t="n">
-        <v>0.41673056147017634</v>
+        <v>0.0</v>
       </c>
       <c r="E350" t="n">
-        <v>0.4009333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F350" t="n">
-        <v>0.3651840361229572</v>
+        <v>0.0</v>
       </c>
       <c r="G350" t="n">
-        <v>0.4041012156264726</v>
+        <v>0.0</v>
       </c>
       <c r="H350" t="n">
-        <v>0.4091221859285714</v>
+        <v>0.0</v>
       </c>
       <c r="I350" t="n">
-        <v>0.3314470585173498</v>
+        <v>0.0</v>
       </c>
       <c r="J350" t="n">
-        <v>0.35885236317548425</v>
+        <v>0.0</v>
       </c>
       <c r="K350" t="n">
-        <v>0.4114336112712853</v>
+        <v>0.0</v>
       </c>
       <c r="L350" t="n">
-        <v>0.37097885169416683</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="351">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1.3759036286052218</v>
+        <v>0.0</v>
       </c>
       <c r="C353" t="n">
-        <v>1.5809977641446242</v>
+        <v>0.0</v>
       </c>
       <c r="D353" t="n">
-        <v>1.6690458883618031</v>
+        <v>0.0</v>
       </c>
       <c r="E353" t="n">
-        <v>1.6057764737638096</v>
+        <v>0.0</v>
       </c>
       <c r="F353" t="n">
-        <v>1.4625971079157578</v>
+        <v>0.0</v>
       </c>
       <c r="G353" t="n">
-        <v>1.6184641463394065</v>
+        <v>0.0</v>
       </c>
       <c r="H353" t="n">
-        <v>1.6385736142141414</v>
+        <v>0.0</v>
       </c>
       <c r="I353" t="n">
-        <v>1.327477275188004</v>
+        <v>0.0</v>
       </c>
       <c r="J353" t="n">
-        <v>1.4372381501706162</v>
+        <v>0.0</v>
       </c>
       <c r="K353" t="n">
-        <v>1.647831094517246</v>
+        <v>0.0</v>
       </c>
       <c r="L353" t="n">
-        <v>1.485805900351862</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="354">
@@ -14239,37 +14239,37 @@
         <v>372.0</v>
       </c>
       <c r="B373" t="n">
-        <v>2.7917419641483465</v>
+        <v>0.0</v>
       </c>
       <c r="C373" t="n">
-        <v>2.657044457208504</v>
+        <v>0.0</v>
       </c>
       <c r="D373" t="n">
-        <v>2.3703798308061392</v>
+        <v>0.0</v>
       </c>
       <c r="E373" t="n">
-        <v>2.3476766211635396</v>
+        <v>0.0</v>
       </c>
       <c r="F373" t="n">
-        <v>2.6987161092128873</v>
+        <v>0.0</v>
       </c>
       <c r="G373" t="n">
-        <v>2.7460132894143774</v>
+        <v>0.0</v>
       </c>
       <c r="H373" t="n">
-        <v>2.64452128590164</v>
+        <v>0.0</v>
       </c>
       <c r="I373" t="n">
-        <v>2.781582211097238</v>
+        <v>0.0</v>
       </c>
       <c r="J373" t="n">
-        <v>2.7679535348434223</v>
+        <v>0.0</v>
       </c>
       <c r="K373" t="n">
-        <v>2.8174312407835225</v>
+        <v>0.0</v>
       </c>
       <c r="L373" t="n">
-        <v>2.703631090284231</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="374">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>3.2260845342487734</v>
+        <v>0.0</v>
       </c>
       <c r="C410" t="n">
-        <v>3.38500505143726</v>
+        <v>0.0</v>
       </c>
       <c r="D410" t="n">
-        <v>3.4860553714057283</v>
+        <v>0.0</v>
       </c>
       <c r="E410" t="n">
-        <v>3.593486158811393</v>
+        <v>0.0</v>
       </c>
       <c r="F410" t="n">
-        <v>3.6612089249734443</v>
+        <v>0.0</v>
       </c>
       <c r="G410" t="n">
-        <v>3.0926264521524254</v>
+        <v>0.0</v>
       </c>
       <c r="H410" t="n">
-        <v>3.622175447141713</v>
+        <v>0.0</v>
       </c>
       <c r="I410" t="n">
-        <v>3.601726884647822</v>
+        <v>0.0</v>
       </c>
       <c r="J410" t="n">
-        <v>3.660634714352567</v>
+        <v>0.0</v>
       </c>
       <c r="K410" t="n">
-        <v>3.4716173750431856</v>
+        <v>0.0</v>
       </c>
       <c r="L410" t="n">
-        <v>3.0720635981961966</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="411">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>4.958255758257595</v>
+        <v>0.0</v>
       </c>
       <c r="C416" t="n">
-        <v>5.202504959135579</v>
+        <v>0.0</v>
       </c>
       <c r="D416" t="n">
-        <v>5.357811903370413</v>
+        <v>0.0</v>
       </c>
       <c r="E416" t="n">
-        <v>5.522925158963488</v>
+        <v>0.0</v>
       </c>
       <c r="F416" t="n">
-        <v>5.627010092796851</v>
+        <v>0.0</v>
       </c>
       <c r="G416" t="n">
-        <v>4.753140456096326</v>
+        <v>0.0</v>
       </c>
       <c r="H416" t="n">
-        <v>5.567018494880132</v>
+        <v>0.0</v>
       </c>
       <c r="I416" t="n">
-        <v>5.535590551298041</v>
+        <v>0.0</v>
       </c>
       <c r="J416" t="n">
-        <v>5.626127573108606</v>
+        <v>0.0</v>
       </c>
       <c r="K416" t="n">
-        <v>5.335621759918716</v>
+        <v>0.0</v>
       </c>
       <c r="L416" t="n">
-        <v>4.721536854903519</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>0.405296812010083</v>
+        <v>0.0</v>
       </c>
       <c r="C420" t="n">
-        <v>0.46579787314137017</v>
+        <v>0.0</v>
       </c>
       <c r="D420" t="n">
-        <v>0.48975722892994933</v>
+        <v>0.0</v>
       </c>
       <c r="E420" t="n">
-        <v>0.3926666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="F420" t="n">
-        <v>0.45550537715054856</v>
+        <v>0.0</v>
       </c>
       <c r="G420" t="n">
-        <v>0.45307315403002835</v>
+        <v>0.0</v>
       </c>
       <c r="H420" t="n">
-        <v>0.44096998264129383</v>
+        <v>0.0</v>
       </c>
       <c r="I420" t="n">
-        <v>0.4660533500100061</v>
+        <v>0.0</v>
       </c>
       <c r="J420" t="n">
-        <v>0.45569340380156687</v>
+        <v>0.0</v>
       </c>
       <c r="K420" t="n">
-        <v>0.43096177561075516</v>
+        <v>0.0</v>
       </c>
       <c r="L420" t="n">
-        <v>0.450452201902067</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="421">
@@ -16063,37 +16063,37 @@
         <v>420.0</v>
       </c>
       <c r="B421" t="n">
-        <v>0.405296812010083</v>
+        <v>0.0</v>
       </c>
       <c r="C421" t="n">
-        <v>0.46579787314137017</v>
+        <v>0.0</v>
       </c>
       <c r="D421" t="n">
-        <v>0.48975722892994933</v>
+        <v>0.0</v>
       </c>
       <c r="E421" t="n">
-        <v>0.3926666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="F421" t="n">
-        <v>0.45550537715054856</v>
+        <v>0.0</v>
       </c>
       <c r="G421" t="n">
-        <v>0.45307315403002835</v>
+        <v>0.0</v>
       </c>
       <c r="H421" t="n">
-        <v>0.44096998264129383</v>
+        <v>0.0</v>
       </c>
       <c r="I421" t="n">
-        <v>0.4660533500100061</v>
+        <v>0.0</v>
       </c>
       <c r="J421" t="n">
-        <v>0.45569340380156687</v>
+        <v>0.0</v>
       </c>
       <c r="K421" t="n">
-        <v>0.43096177561075516</v>
+        <v>0.0</v>
       </c>
       <c r="L421" t="n">
-        <v>0.450452201902067</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="422">
@@ -17013,37 +17013,37 @@
         <v>445.0</v>
       </c>
       <c r="B446" t="n">
-        <v>0.7769560602389869</v>
+        <v>0.0</v>
       </c>
       <c r="C446" t="n">
-        <v>0.6793222116730653</v>
+        <v>0.0</v>
       </c>
       <c r="D446" t="n">
-        <v>0.7911732671529772</v>
+        <v>0.0</v>
       </c>
       <c r="E446" t="n">
-        <v>0.7825119664436571</v>
+        <v>0.0</v>
       </c>
       <c r="F446" t="n">
-        <v>0.6610736236427279</v>
+        <v>0.0</v>
       </c>
       <c r="G446" t="n">
-        <v>0.7791159332864311</v>
+        <v>0.0</v>
       </c>
       <c r="H446" t="n">
-        <v>0.7696620816764043</v>
+        <v>0.0</v>
       </c>
       <c r="I446" t="n">
-        <v>0.668979505473517</v>
+        <v>0.0</v>
       </c>
       <c r="J446" t="n">
-        <v>0.6611614318189166</v>
+        <v>0.0</v>
       </c>
       <c r="K446" t="n">
-        <v>0.8132270502349093</v>
+        <v>0.0</v>
       </c>
       <c r="L446" t="n">
-        <v>0.6629959321999058</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="447">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>0.8382860021483108</v>
+        <v>0.0</v>
       </c>
       <c r="C473" t="n">
-        <v>0.7947498657567469</v>
+        <v>0.0</v>
       </c>
       <c r="D473" t="n">
-        <v>0.7740415704286964</v>
+        <v>0.0</v>
       </c>
       <c r="E473" t="n">
-        <v>0.7309923664167189</v>
+        <v>0.0</v>
       </c>
       <c r="F473" t="n">
-        <v>0.703879487028805</v>
+        <v>0.0</v>
       </c>
       <c r="G473" t="n">
-        <v>0.8342405413860149</v>
+        <v>0.0</v>
       </c>
       <c r="H473" t="n">
-        <v>0.6981361734686152</v>
+        <v>0.0</v>
       </c>
       <c r="I473" t="n">
-        <v>0.817928118487403</v>
+        <v>0.0</v>
       </c>
       <c r="J473" t="n">
-        <v>0.7002369061711868</v>
+        <v>0.0</v>
       </c>
       <c r="K473" t="n">
-        <v>0.80890610296328</v>
+        <v>0.0</v>
       </c>
       <c r="L473" t="n">
-        <v>0.7836813362297161</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="474">
@@ -19027,37 +19027,37 @@
         <v>498.0</v>
       </c>
       <c r="B499" t="n">
-        <v>1.2092956295590238</v>
+        <v>0.0</v>
       </c>
       <c r="C499" t="n">
-        <v>1.2354808979120935</v>
+        <v>0.0</v>
       </c>
       <c r="D499" t="n">
-        <v>1.0743579705056179</v>
+        <v>0.0</v>
       </c>
       <c r="E499" t="n">
-        <v>1.2152</v>
+        <v>0.0</v>
       </c>
       <c r="F499" t="n">
-        <v>1.1726106156506317</v>
+        <v>0.0</v>
       </c>
       <c r="G499" t="n">
-        <v>1.2628674232860455</v>
+        <v>0.0</v>
       </c>
       <c r="H499" t="n">
-        <v>1.0298220550196557</v>
+        <v>0.0</v>
       </c>
       <c r="I499" t="n">
-        <v>1.2714212489970376</v>
+        <v>0.0</v>
       </c>
       <c r="J499" t="n">
-        <v>1.1741027232344414</v>
+        <v>0.0</v>
       </c>
       <c r="K499" t="n">
-        <v>1.2573847961523397</v>
+        <v>0.0</v>
       </c>
       <c r="L499" t="n">
-        <v>1.3550732289713983</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="500">
@@ -20547,37 +20547,37 @@
         <v>538.0</v>
       </c>
       <c r="B539" t="n">
-        <v>1.0512998088071899</v>
+        <v>0.0</v>
       </c>
       <c r="C539" t="n">
-        <v>1.083984239196516</v>
+        <v>0.0</v>
       </c>
       <c r="D539" t="n">
-        <v>1.2239708586936973</v>
+        <v>0.0</v>
       </c>
       <c r="E539" t="n">
-        <v>1.293488047022764</v>
+        <v>0.0</v>
       </c>
       <c r="F539" t="n">
-        <v>1.2535944215339783</v>
+        <v>0.0</v>
       </c>
       <c r="G539" t="n">
-        <v>1.2423995395916707</v>
+        <v>0.0</v>
       </c>
       <c r="H539" t="n">
-        <v>1.0946098014932653</v>
+        <v>0.0</v>
       </c>
       <c r="I539" t="n">
-        <v>1.2807397022017932</v>
+        <v>0.0</v>
       </c>
       <c r="J539" t="n">
-        <v>1.2757131274432612</v>
+        <v>0.0</v>
       </c>
       <c r="K539" t="n">
-        <v>1.0957535952971174</v>
+        <v>0.0</v>
       </c>
       <c r="L539" t="n">
-        <v>1.3069192133870777</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="540">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>0.79065241513678</v>
+        <v>0.0</v>
       </c>
       <c r="C576" t="n">
-        <v>0.66976752200611</v>
+        <v>0.0</v>
       </c>
       <c r="D576" t="n">
-        <v>0.816567428806257</v>
+        <v>0.0</v>
       </c>
       <c r="E576" t="n">
-        <v>0.7876858628506079</v>
+        <v>0.0</v>
       </c>
       <c r="F576" t="n">
-        <v>0.8154602846663445</v>
+        <v>0.0</v>
       </c>
       <c r="G576" t="n">
-        <v>0.6883041692456373</v>
+        <v>0.0</v>
       </c>
       <c r="H576" t="n">
-        <v>0.8420053764160136</v>
+        <v>0.0</v>
       </c>
       <c r="I576" t="n">
-        <v>0.6914799282833695</v>
+        <v>0.0</v>
       </c>
       <c r="J576" t="n">
-        <v>0.8144239575622777</v>
+        <v>0.0</v>
       </c>
       <c r="K576" t="n">
-        <v>0.7030828183123575</v>
+        <v>0.0</v>
       </c>
       <c r="L576" t="n">
-        <v>0.8248989659442737</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="577">
@@ -22827,37 +22827,37 @@
         <v>598.0</v>
       </c>
       <c r="B599" t="n">
-        <v>0.7211210217177239</v>
+        <v>0.0</v>
       </c>
       <c r="C599" t="n">
-        <v>0.763589703364129</v>
+        <v>0.0</v>
       </c>
       <c r="D599" t="n">
-        <v>0.742987499818609</v>
+        <v>0.0</v>
       </c>
       <c r="E599" t="n">
-        <v>0.7719590496381692</v>
+        <v>0.0</v>
       </c>
       <c r="F599" t="n">
-        <v>0.8094501684944311</v>
+        <v>0.0</v>
       </c>
       <c r="G599" t="n">
-        <v>0.6560883026034338</v>
+        <v>0.0</v>
       </c>
       <c r="H599" t="n">
-        <v>0.7636773932730492</v>
+        <v>0.0</v>
       </c>
       <c r="I599" t="n">
-        <v>0.643454121187392</v>
+        <v>0.0</v>
       </c>
       <c r="J599" t="n">
-        <v>0.7892026299655998</v>
+        <v>0.0</v>
       </c>
       <c r="K599" t="n">
-        <v>0.757047318972611</v>
+        <v>0.0</v>
       </c>
       <c r="L599" t="n">
-        <v>0.7348824403947856</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="600">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>0.5366329345213215</v>
+        <v>0.0</v>
       </c>
       <c r="C603" t="n">
-        <v>0.5087630612684552</v>
+        <v>0.0</v>
       </c>
       <c r="D603" t="n">
-        <v>0.4955065434900993</v>
+        <v>0.0</v>
       </c>
       <c r="E603" t="n">
-        <v>0.4679483824107648</v>
+        <v>0.0</v>
       </c>
       <c r="F603" t="n">
-        <v>0.4505919384382162</v>
+        <v>0.0</v>
       </c>
       <c r="G603" t="n">
-        <v>0.5340432127857823</v>
+        <v>0.0</v>
       </c>
       <c r="H603" t="n">
-        <v>0.4469153278282547</v>
+        <v>0.0</v>
       </c>
       <c r="I603" t="n">
-        <v>0.5236007345065301</v>
+        <v>0.0</v>
       </c>
       <c r="J603" t="n">
-        <v>0.44826012226826306</v>
+        <v>0.0</v>
       </c>
       <c r="K603" t="n">
-        <v>0.5178252466019254</v>
+        <v>0.0</v>
       </c>
       <c r="L603" t="n">
-        <v>0.5016774872928617</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="604">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>1.8728332088363124</v>
+        <v>0.0</v>
       </c>
       <c r="C618" t="n">
-        <v>1.557905158027954</v>
+        <v>0.0</v>
       </c>
       <c r="D618" t="n">
-        <v>1.774812263248185</v>
+        <v>0.0</v>
       </c>
       <c r="E618" t="n">
-        <v>1.4814256965518369</v>
+        <v>0.0</v>
       </c>
       <c r="F618" t="n">
-        <v>2.108484797657897</v>
+        <v>0.0</v>
       </c>
       <c r="G618" t="n">
-        <v>1.7213468287324134</v>
+        <v>0.0</v>
       </c>
       <c r="H618" t="n">
-        <v>2.0655330461408345</v>
+        <v>0.0</v>
       </c>
       <c r="I618" t="n">
-        <v>1.9735186583311588</v>
+        <v>0.0</v>
       </c>
       <c r="J618" t="n">
-        <v>2.1194529804183895</v>
+        <v>0.0</v>
       </c>
       <c r="K618" t="n">
-        <v>1.8630599675406152</v>
+        <v>0.0</v>
       </c>
       <c r="L618" t="n">
-        <v>2.0146037161780255</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="619">
